--- a/model/ResNet_200iter_loss.xlsx
+++ b/model/ResNet_200iter_loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZJUSO\Documents\CaptainCandy\classification_cifar10\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinze\Documents\CaptainCandy\classification_cifar10\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AABD48-EC00-489F-A12B-E5BEAA3D2E41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848300B3-A71F-43CE-B42F-0C97D5D5B2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResNet_200iter_loss" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -3322,7 +3324,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -7429,7 +7431,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -10408,20 +10410,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.7109375" customWidth="1"/>
-    <col min="2" max="2" width="14.5" customWidth="1"/>
-    <col min="3" max="3" width="18.35546875" customWidth="1"/>
-    <col min="4" max="6" width="23.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.1328125" customWidth="1"/>
+    <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="11.46484375" customWidth="1"/>
+    <col min="5" max="5" width="11.06640625" customWidth="1"/>
+    <col min="6" max="6" width="8.86328125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10444,7 +10448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10467,7 +10471,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10490,7 +10494,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10513,7 +10517,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10536,7 +10540,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10559,7 +10563,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10582,7 +10586,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10605,7 +10609,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10628,7 +10632,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10651,7 +10655,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10674,7 +10678,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10697,7 +10701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10720,7 +10724,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10743,7 +10747,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10766,7 +10770,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10789,7 +10793,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10812,7 +10816,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10835,7 +10839,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10858,7 +10862,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10881,7 +10885,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10904,7 +10908,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10927,7 +10931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10950,7 +10954,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10973,7 +10977,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10996,7 +11000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11019,7 +11023,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11042,7 +11046,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11065,7 +11069,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11088,7 +11092,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11111,7 +11115,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11134,7 +11138,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11203,7 +11207,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11226,7 +11230,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11249,7 +11253,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11272,7 +11276,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11295,7 +11299,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11318,7 +11322,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11341,7 +11345,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11364,7 +11368,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11387,7 +11391,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11410,7 +11414,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11433,7 +11437,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11456,7 +11460,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11479,7 +11483,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11502,7 +11506,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11525,7 +11529,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11548,7 +11552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11571,7 +11575,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11594,7 +11598,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11617,7 +11621,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11640,7 +11644,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11663,7 +11667,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11686,7 +11690,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11709,7 +11713,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11732,7 +11736,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11755,7 +11759,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11778,7 +11782,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11801,7 +11805,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11824,7 +11828,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11847,7 +11851,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11870,7 +11874,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11893,7 +11897,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11916,7 +11920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11939,7 +11943,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11962,7 +11966,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11985,7 +11989,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12008,7 +12012,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12031,7 +12035,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12054,7 +12058,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12077,7 +12081,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12100,7 +12104,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12123,7 +12127,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12146,7 +12150,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12169,7 +12173,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12192,7 +12196,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12215,7 +12219,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12238,7 +12242,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12261,7 +12265,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12284,7 +12288,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12307,7 +12311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12330,7 +12334,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12353,7 +12357,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12376,7 +12380,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12399,7 +12403,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12422,7 +12426,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12445,7 +12449,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12468,7 +12472,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12491,7 +12495,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12514,7 +12518,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12537,7 +12541,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12560,7 +12564,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12583,7 +12587,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12606,7 +12610,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12629,7 +12633,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12652,7 +12656,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12675,7 +12679,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12698,7 +12702,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12721,7 +12725,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12744,7 +12748,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12767,7 +12771,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12790,7 +12794,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12813,7 +12817,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12836,7 +12840,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12859,7 +12863,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12882,7 +12886,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12905,7 +12909,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12928,7 +12932,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12951,7 +12955,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12974,7 +12978,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A112">
         <v>111</v>
       </c>
@@ -12997,7 +13001,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13020,7 +13024,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13043,7 +13047,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13066,7 +13070,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13089,7 +13093,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13112,7 +13116,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13135,7 +13139,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13158,7 +13162,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13181,7 +13185,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13204,7 +13208,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13227,7 +13231,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13250,7 +13254,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13273,7 +13277,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13296,7 +13300,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13319,7 +13323,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13342,7 +13346,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13365,7 +13369,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13388,7 +13392,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13411,7 +13415,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13434,7 +13438,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13457,7 +13461,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13480,7 +13484,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13503,7 +13507,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13526,7 +13530,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13549,7 +13553,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13572,7 +13576,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13595,7 +13599,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13618,7 +13622,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13641,7 +13645,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13664,7 +13668,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13687,7 +13691,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13710,7 +13714,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13733,7 +13737,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13756,7 +13760,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13779,7 +13783,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13802,7 +13806,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13825,7 +13829,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13848,7 +13852,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13871,7 +13875,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13894,7 +13898,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13917,7 +13921,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13940,7 +13944,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13963,7 +13967,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13986,7 +13990,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A156">
         <v>155</v>
       </c>
@@ -14009,7 +14013,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A157">
         <v>156</v>
       </c>
@@ -14032,7 +14036,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14055,7 +14059,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14078,7 +14082,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A160">
         <v>159</v>
       </c>
@@ -14101,7 +14105,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14124,7 +14128,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14147,7 +14151,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14170,7 +14174,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14193,7 +14197,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14216,7 +14220,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14239,7 +14243,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14262,7 +14266,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14285,7 +14289,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14308,7 +14312,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14331,7 +14335,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14354,7 +14358,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14377,7 +14381,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14400,7 +14404,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14423,7 +14427,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14446,7 +14450,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14469,7 +14473,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14492,7 +14496,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14515,7 +14519,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14538,7 +14542,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14561,7 +14565,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14584,7 +14588,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14607,7 +14611,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14630,7 +14634,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14653,7 +14657,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14676,7 +14680,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14699,7 +14703,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14722,7 +14726,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14745,7 +14749,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14768,7 +14772,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14791,7 +14795,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14814,7 +14818,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14837,7 +14841,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A193">
         <v>192</v>
       </c>
@@ -14860,7 +14864,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A194">
         <v>193</v>
       </c>
@@ -14883,7 +14887,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A195">
         <v>194</v>
       </c>
@@ -14906,7 +14910,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A196">
         <v>195</v>
       </c>
@@ -14929,7 +14933,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A197">
         <v>196</v>
       </c>
@@ -14952,7 +14956,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A198">
         <v>197</v>
       </c>
@@ -14975,7 +14979,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A199">
         <v>198</v>
       </c>
@@ -14998,7 +15002,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15021,7 +15025,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15044,7 +15048,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B202">
         <f>SUM(B2:B201)</f>
         <v>6962</v>

--- a/model/ResNet_200iter_loss.xlsx
+++ b/model/ResNet_200iter_loss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xinze\Documents\CaptainCandy\classification_cifar10\model\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZJUSO\Documents\CaptainCandy\classification_cifar10\model\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{848300B3-A71F-43CE-B42F-0C97D5D5B2E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1430DDF-432D-4099-810E-3EBBAE645BEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ResNet_200iter_loss" sheetId="1" r:id="rId1"/>
@@ -10410,22 +10410,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B202" sqref="B202"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.1328125" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="11.46484375" customWidth="1"/>
-    <col min="5" max="5" width="11.06640625" customWidth="1"/>
-    <col min="6" max="6" width="8.86328125" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="11.0703125" customWidth="1"/>
+    <col min="6" max="6" width="8.85546875" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10448,7 +10448,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -10471,7 +10471,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -10494,7 +10494,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -10517,7 +10517,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -10563,7 +10563,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -10586,7 +10586,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -10609,7 +10609,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -10632,7 +10632,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -10655,7 +10655,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -10678,7 +10678,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -10701,7 +10701,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -10724,7 +10724,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -10747,7 +10747,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -10770,7 +10770,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -10793,7 +10793,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -10816,7 +10816,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -10839,7 +10839,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -10862,7 +10862,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -10885,7 +10885,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -10908,7 +10908,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10931,7 +10931,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10954,7 +10954,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10977,7 +10977,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11023,7 +11023,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11046,7 +11046,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11069,7 +11069,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11092,7 +11092,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11115,7 +11115,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11138,7 +11138,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11161,7 +11161,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -11184,7 +11184,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -11207,7 +11207,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -11253,7 +11253,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -11276,7 +11276,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11299,7 +11299,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11322,7 +11322,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11345,7 +11345,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11391,7 +11391,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11414,7 +11414,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -11437,7 +11437,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -11483,7 +11483,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -11506,7 +11506,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -11529,7 +11529,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -11552,7 +11552,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -11621,7 +11621,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -11644,7 +11644,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -11667,7 +11667,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -11690,7 +11690,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -11713,7 +11713,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -11736,7 +11736,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -11759,7 +11759,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -11782,7 +11782,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -11805,7 +11805,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -11828,7 +11828,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -11851,7 +11851,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -11874,7 +11874,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -11897,7 +11897,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -11943,7 +11943,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -11966,7 +11966,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -12012,7 +12012,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -12035,7 +12035,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -12058,7 +12058,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -12081,7 +12081,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -12104,7 +12104,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -12127,7 +12127,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -12150,7 +12150,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -12173,7 +12173,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -12219,7 +12219,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -12242,7 +12242,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -12265,7 +12265,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -12288,7 +12288,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -12311,7 +12311,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -12334,7 +12334,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -12357,7 +12357,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -12403,7 +12403,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -12426,7 +12426,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -12449,7 +12449,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -12472,7 +12472,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -12495,7 +12495,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -12541,7 +12541,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -12564,7 +12564,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -12587,7 +12587,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -12610,7 +12610,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -12633,7 +12633,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -12656,7 +12656,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -12679,7 +12679,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -12702,7 +12702,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -12725,7 +12725,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -12771,7 +12771,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -12794,7 +12794,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -12817,7 +12817,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -12863,7 +12863,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -12886,7 +12886,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -12909,7 +12909,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -12932,7 +12932,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -12955,7 +12955,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -12978,7 +12978,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -13001,7 +13001,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -13024,7 +13024,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -13047,7 +13047,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -13070,7 +13070,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -13093,7 +13093,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -13116,7 +13116,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -13139,7 +13139,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -13162,7 +13162,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -13185,7 +13185,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -13208,7 +13208,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -13231,7 +13231,7 @@
         <v>1E-4</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -13254,7 +13254,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -13277,7 +13277,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -13323,7 +13323,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -13346,7 +13346,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -13369,7 +13369,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -13392,7 +13392,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -13415,7 +13415,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -13438,7 +13438,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -13461,7 +13461,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -13484,7 +13484,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -13507,7 +13507,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -13530,7 +13530,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -13553,7 +13553,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -13576,7 +13576,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -13599,7 +13599,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -13622,7 +13622,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -13645,7 +13645,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -13668,7 +13668,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -13691,7 +13691,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -13714,7 +13714,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -13737,7 +13737,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -13783,7 +13783,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -13806,7 +13806,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -13829,7 +13829,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -13875,7 +13875,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -13898,7 +13898,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -13921,7 +13921,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -13944,7 +13944,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -13967,7 +13967,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -13990,7 +13990,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -14013,7 +14013,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -14036,7 +14036,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -14059,7 +14059,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -14082,7 +14082,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -14105,7 +14105,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -14128,7 +14128,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -14151,7 +14151,7 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -14174,7 +14174,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -14197,7 +14197,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="165" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -14243,7 +14243,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -14266,7 +14266,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -14289,7 +14289,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -14312,7 +14312,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -14335,7 +14335,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -14358,7 +14358,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -14381,7 +14381,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -14404,7 +14404,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -14427,7 +14427,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -14450,7 +14450,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -14473,7 +14473,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -14496,7 +14496,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -14519,7 +14519,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -14542,7 +14542,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -14565,7 +14565,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -14588,7 +14588,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -14611,7 +14611,7 @@
         <v>9.9999999999999995E-7</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -14634,7 +14634,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -14657,7 +14657,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -14703,7 +14703,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -14726,7 +14726,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -14749,7 +14749,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -14772,7 +14772,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -14795,7 +14795,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -14818,7 +14818,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -14841,7 +14841,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -14864,7 +14864,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -14887,7 +14887,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -14910,7 +14910,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -14933,7 +14933,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -14956,7 +14956,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -14979,7 +14979,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -15002,7 +15002,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -15025,7 +15025,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -15048,7 +15048,7 @@
         <v>4.9999999999999998E-7</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.35">
       <c r="B202">
         <f>SUM(B2:B201)</f>
         <v>6962</v>
